--- a/Algoritmia/tables/lab2/table3.xlsx
+++ b/Algoritmia/tables/lab2/table3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uo244965\Downloads\University\Algoritmia\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carla\Documents\Git\University\Algoritmia\tables\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,26 +29,34 @@
     <t>n</t>
   </si>
   <si>
-    <t>loop4(ms)</t>
+    <t>loop4(micros)</t>
   </si>
   <si>
-    <t>loop5(ms)</t>
+    <t>loop5(micros)</t>
   </si>
   <si>
-    <t>loop4(ms)/loop5(ms)</t>
+    <t>loop4(micros)/loop5(micros)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,15 +79,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,7 +141,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -111,63 +152,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>loop4</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -176,6 +161,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>loop4(micros)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -240,34 +236,146 @@
             <c:numRef>
               <c:f>Sheet1!$C$3:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.25E-4</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4299999999999999E-4</c:v>
+                  <c:v>0.34300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5269999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.0000">
-                  <c:v>7.0199999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0000">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0000">
-                  <c:v>18.41</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.0000">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.0000">
-                  <c:v>4617</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.0000">
-                  <c:v>74585</c:v>
+                  <c:v>4.5270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>18410</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>297000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>4617000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>74585000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>loop5(micros)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>357.2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>3417</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>31200</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>294800</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>2621000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -282,731 +390,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="287052248"/>
-        <c:axId val="284716840"/>
+        <c:axId val="-831096864"/>
+        <c:axId val="-831100128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="287052248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="250"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="284716840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="284716840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="287052248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>loop5</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>9.3999999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7399999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7599999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.0000">
-                  <c:v>3.5900000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0000">
-                  <c:v>0.35720000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0000">
-                  <c:v>3.4169999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.0000">
-                  <c:v>31.2</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.0000">
-                  <c:v>294.8</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.0000">
-                  <c:v>2621</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="292568304"/>
-        <c:axId val="292569480"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="292568304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="250"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="292569480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="292569480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="292568304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>implementation constant</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.3297872340425534</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91711229946524064</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2039893617021276</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9554317548746516</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4994400895856663</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.3877670471173547</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.5192307692307701</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.66146540027137</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.456695917588707</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="233428264"/>
-        <c:axId val="73471360"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="233428264"/>
+        <c:axId val="-831096864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,15 +448,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73471360"/>
+        <c:crossAx val="-831100128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73471360"/>
+        <c:axId val="-831100128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +476,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1122,10 +510,385 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233428264"/>
+        <c:crossAx val="-831096864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>loop4(micros)/loop5(micros)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.3297872340425532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91711229946524075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2039893617021278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.955431754874652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4994400895856663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3877670471173547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5192307692307701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.66146540027137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.456695917588707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-828980576"/>
+        <c:axId val="-828977312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-828980576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-828977312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-828977312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-828980576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1163,7 +926,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1254,46 +1017,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2326,540 +2049,24 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>488674</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83653</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2876,20 +2083,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>436788</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>477610</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>455544</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2904,41 +2111,11 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>51547</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>127747</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3202,198 +2379,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <f>125/1000000</f>
-        <v>1.25E-4</v>
-      </c>
-      <c r="D3" s="1">
-        <f>94/1000000</f>
-        <v>9.3999999999999994E-5</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="7">
+        <f>125/1000</f>
+        <v>0.125</v>
+      </c>
+      <c r="D3" s="7">
+        <f>94/1000</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="E3" s="7">
         <f>C3/D3</f>
-        <v>1.3297872340425534</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>1.3297872340425532</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <f>343/1000000</f>
-        <v>3.4299999999999999E-4</v>
-      </c>
-      <c r="D4" s="1">
-        <f>374/1000000</f>
-        <v>3.7399999999999998E-4</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="7">
+        <f>343/1000</f>
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="D4" s="7">
+        <f>374/1000</f>
+        <v>0.374</v>
+      </c>
+      <c r="E4" s="7">
         <f t="shared" ref="E4:E11" si="0">C4/D4</f>
-        <v>0.91711229946524064</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>0.91711229946524075</v>
+      </c>
+      <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <f>4527/1000000</f>
-        <v>4.5269999999999998E-3</v>
-      </c>
-      <c r="D5" s="1">
-        <f>3760/1000000</f>
-        <v>3.7599999999999999E-3</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="7">
+        <f>4527/1000</f>
+        <v>4.5270000000000001</v>
+      </c>
+      <c r="D5" s="7">
+        <f>3760/1000</f>
+        <v>3.76</v>
+      </c>
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
-        <v>1.2039893617021276</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>1.2039893617021278</v>
+      </c>
+      <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="C6" s="3">
-        <f>702/10000</f>
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="D6" s="3">
-        <f>359/10000</f>
-        <v>3.5900000000000001E-2</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="9">
+        <f>702/10</f>
+        <v>70.2</v>
+      </c>
+      <c r="D6" s="9">
+        <f>359/10</f>
+        <v>35.9</v>
+      </c>
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
-        <v>1.9554317548746516</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>1.955431754874652</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <f t="shared" ref="B7:B17" si="1">B6*2</f>
+    <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <f t="shared" ref="B7:B11" si="1">B6*2</f>
         <v>16</v>
       </c>
-      <c r="C7" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="D7" s="3">
-        <f>3572/10000</f>
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="8">
+        <v>1250</v>
+      </c>
+      <c r="D7" s="9">
+        <f>3572/10</f>
+        <v>357.2</v>
+      </c>
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>3.4994400895856663</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+    <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C8" s="3">
-        <v>18.41</v>
-      </c>
-      <c r="D8" s="3">
-        <f>3417/1000</f>
-        <v>3.4169999999999998</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="8">
+        <v>18410</v>
+      </c>
+      <c r="D8" s="8">
+        <f>3417</f>
+        <v>3417</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>5.3877670471173547</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="C9" s="3">
-        <v>297</v>
-      </c>
-      <c r="D9" s="3">
-        <f>312/10</f>
-        <v>31.2</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C9" s="8">
+        <v>297000</v>
+      </c>
+      <c r="D9" s="8">
+        <f>31200</f>
+        <v>31200</v>
+      </c>
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>9.5192307692307701</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="C10" s="3">
-        <v>4617</v>
-      </c>
-      <c r="D10" s="3">
-        <f>2948/10</f>
-        <v>294.8</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C10" s="8">
+        <v>4617000</v>
+      </c>
+      <c r="D10" s="8">
+        <f>294800</f>
+        <v>294800</v>
+      </c>
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>15.66146540027137</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+    <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="C11" s="3">
-        <v>74585</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2621</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="C11" s="8">
+        <v>74585000</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2621000</v>
+      </c>
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>28.456695917588707</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -3433,6 +2611,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>